--- a/126-AzureCost/dailyexport_5c640736-52ca-4edb-af96-fac3fecdb3fa.xlsx
+++ b/126-AzureCost/dailyexport_5c640736-52ca-4edb-af96-fac3fecdb3fa.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GITHUB\MSFTCSA\126-AzureCost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7433C340-0B29-4308-9B3C-168C2F672CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FA75A0-DB43-4508-9D58-8B2FD34FE374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6670" yWindow="1470" windowWidth="31830" windowHeight="18980"/>
+    <workbookView xWindow="3840" yWindow="3040" windowWidth="34460" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dailyexport_5c640736-52ca-4edb-" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1039,25 +1039,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
     <col min="3" max="3" width="8.08984375" customWidth="1"/>
     <col min="4" max="4" width="15.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="23.90625" customWidth="1"/>
     <col min="10" max="11" width="11.7265625" customWidth="1"/>
     <col min="12" max="12" width="13.08984375" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1098,16 +1099,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -1168,13 +1169,13 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
         <v>33</v>
       </c>
       <c r="R2" t="s">
@@ -1227,13 +1228,13 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
         <v>38</v>
       </c>
       <c r="R3" t="s">
@@ -1286,13 +1287,13 @@
       <c r="L4">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
       <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>43</v>
       </c>
       <c r="U4" t="s">
@@ -1342,13 +1343,13 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
         <v>46</v>
       </c>
       <c r="R5" t="s">
@@ -1401,13 +1402,13 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>31</v>
-      </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
         <v>33</v>
       </c>
       <c r="R6" t="s">
@@ -1460,13 +1461,13 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
         <v>48</v>
       </c>
       <c r="R7" t="s">
@@ -1519,13 +1520,13 @@
       <c r="L8">
         <v>6.6103667000000005E-5</v>
       </c>
-      <c r="M8" t="s">
-        <v>31</v>
-      </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" t="s">
         <v>46</v>
       </c>
       <c r="R8" t="s">
@@ -1578,13 +1579,13 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>31</v>
-      </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
         <v>55</v>
       </c>
       <c r="R9" t="s">
@@ -1637,13 +1638,13 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
         <v>33</v>
       </c>
       <c r="R10" t="s">
@@ -1696,13 +1697,13 @@
       <c r="L11">
         <v>4.4020200000000002E-5</v>
       </c>
-      <c r="M11" t="s">
-        <v>31</v>
-      </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
         <v>46</v>
       </c>
       <c r="R11" t="s">
@@ -1755,13 +1756,13 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>31</v>
-      </c>
       <c r="N12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
         <v>33</v>
       </c>
       <c r="R12" t="s">
@@ -1814,13 +1815,13 @@
       <c r="L13">
         <v>5.7739828999999998E-5</v>
       </c>
-      <c r="M13" t="s">
-        <v>31</v>
-      </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
         <v>46</v>
       </c>
       <c r="R13" t="s">
@@ -1873,13 +1874,13 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
-        <v>31</v>
-      </c>
       <c r="N14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
         <v>55</v>
       </c>
       <c r="R14" t="s">
@@ -1932,13 +1933,13 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>31</v>
-      </c>
       <c r="N15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s">
         <v>55</v>
       </c>
       <c r="R15" t="s">
@@ -1991,13 +1992,13 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>31</v>
-      </c>
       <c r="N16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
         <v>38</v>
       </c>
       <c r="R16" t="s">
@@ -2050,13 +2051,13 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>31</v>
-      </c>
       <c r="N17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
         <v>38</v>
       </c>
       <c r="R17" t="s">
@@ -2109,13 +2110,13 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>31</v>
-      </c>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" t="s">
         <v>56</v>
       </c>
       <c r="R18" t="s">
@@ -2168,13 +2169,13 @@
       <c r="L19">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M19" t="s">
-        <v>31</v>
-      </c>
       <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" t="s">
         <v>42</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>43</v>
       </c>
       <c r="U19" t="s">
@@ -2224,13 +2225,13 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
-        <v>31</v>
-      </c>
       <c r="N20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" t="s">
         <v>56</v>
       </c>
       <c r="R20" t="s">
@@ -2283,13 +2284,13 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
-        <v>31</v>
-      </c>
       <c r="N21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" t="s">
         <v>55</v>
       </c>
       <c r="R21" t="s">
@@ -2342,13 +2343,13 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
-        <v>31</v>
-      </c>
       <c r="N22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" t="s">
         <v>46</v>
       </c>
       <c r="R22" t="s">
@@ -2401,13 +2402,13 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
-        <v>31</v>
-      </c>
       <c r="N23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" t="s">
         <v>38</v>
       </c>
       <c r="R23" t="s">
@@ -2460,13 +2461,13 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>31</v>
-      </c>
       <c r="N24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" t="s">
         <v>56</v>
       </c>
       <c r="R24" t="s">
@@ -2519,13 +2520,13 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" t="s">
-        <v>31</v>
-      </c>
       <c r="N25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" t="s">
         <v>56</v>
       </c>
       <c r="R25" t="s">
@@ -2578,13 +2579,13 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
-        <v>31</v>
-      </c>
       <c r="N26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" t="s">
         <v>56</v>
       </c>
       <c r="R26" t="s">
@@ -2637,13 +2638,13 @@
       <c r="L27">
         <v>6.6543869E-5</v>
       </c>
-      <c r="M27" t="s">
-        <v>31</v>
-      </c>
       <c r="N27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" t="s">
         <v>46</v>
       </c>
       <c r="R27" t="s">
@@ -2696,13 +2697,13 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
-        <v>31</v>
-      </c>
       <c r="N28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" t="s">
         <v>56</v>
       </c>
       <c r="R28" t="s">
@@ -2755,13 +2756,13 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" t="s">
-        <v>31</v>
-      </c>
       <c r="N29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" t="s">
         <v>55</v>
       </c>
       <c r="R29" t="s">
@@ -2814,13 +2815,13 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>31</v>
-      </c>
       <c r="N30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" t="s">
         <v>56</v>
       </c>
       <c r="R30" t="s">
@@ -2873,13 +2874,13 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
-        <v>31</v>
-      </c>
       <c r="N31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" t="s">
         <v>33</v>
       </c>
       <c r="R31" t="s">
@@ -2932,13 +2933,13 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>31</v>
-      </c>
       <c r="N32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" t="s">
         <v>46</v>
       </c>
       <c r="R32" t="s">
@@ -2991,13 +2992,13 @@
       <c r="L33">
         <v>4.6881512999999997E-5</v>
       </c>
-      <c r="M33" t="s">
-        <v>31</v>
-      </c>
       <c r="N33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O33" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" t="s">
         <v>46</v>
       </c>
       <c r="R33" t="s">
@@ -3050,13 +3051,13 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
-        <v>31</v>
-      </c>
       <c r="N34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" t="s">
         <v>56</v>
       </c>
       <c r="R34" t="s">
@@ -3109,13 +3110,13 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>31</v>
-      </c>
       <c r="N35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" t="s">
         <v>55</v>
       </c>
       <c r="R35" t="s">
@@ -3168,13 +3169,13 @@
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" t="s">
-        <v>31</v>
-      </c>
       <c r="N36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O36" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" t="s">
         <v>48</v>
       </c>
       <c r="R36" t="s">
@@ -3227,13 +3228,13 @@
       <c r="L37">
         <v>7.1899660000000003E-5</v>
       </c>
-      <c r="M37" t="s">
-        <v>31</v>
-      </c>
       <c r="N37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O37" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" t="s">
         <v>46</v>
       </c>
       <c r="R37" t="s">
@@ -3286,13 +3287,13 @@
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
-        <v>31</v>
-      </c>
       <c r="N38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" t="s">
         <v>46</v>
       </c>
       <c r="R38" t="s">
@@ -3345,13 +3346,13 @@
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39" t="s">
-        <v>31</v>
-      </c>
       <c r="N39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" t="s">
         <v>56</v>
       </c>
       <c r="R39" t="s">
@@ -3404,13 +3405,13 @@
       <c r="L40">
         <v>7.4614238999999995E-5</v>
       </c>
-      <c r="M40" t="s">
-        <v>31</v>
-      </c>
       <c r="N40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" t="s">
         <v>46</v>
       </c>
       <c r="R40" t="s">
@@ -3463,13 +3464,13 @@
       <c r="L41">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M41" t="s">
-        <v>31</v>
-      </c>
       <c r="N41" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" t="s">
         <v>42</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>43</v>
       </c>
       <c r="U41" t="s">
@@ -3519,13 +3520,13 @@
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
-        <v>31</v>
-      </c>
       <c r="N42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" t="s">
         <v>33</v>
       </c>
       <c r="R42" t="s">
@@ -3578,13 +3579,13 @@
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43" t="s">
-        <v>31</v>
-      </c>
       <c r="N43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" t="s">
         <v>46</v>
       </c>
       <c r="R43" t="s">
@@ -3637,13 +3638,13 @@
       <c r="L44">
         <v>6.4049391000000006E-5</v>
       </c>
-      <c r="M44" t="s">
-        <v>31</v>
-      </c>
       <c r="N44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" t="s">
         <v>46</v>
       </c>
       <c r="R44" t="s">
@@ -3696,13 +3697,13 @@
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" t="s">
-        <v>31</v>
-      </c>
       <c r="N45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O45" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" t="s">
         <v>55</v>
       </c>
       <c r="R45" t="s">
@@ -3755,13 +3756,13 @@
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" t="s">
-        <v>31</v>
-      </c>
       <c r="N46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O46" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" t="s">
         <v>33</v>
       </c>
       <c r="R46" t="s">
@@ -3814,13 +3815,13 @@
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" t="s">
-        <v>31</v>
-      </c>
       <c r="N47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O47" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" t="s">
         <v>56</v>
       </c>
       <c r="R47" t="s">
@@ -3873,13 +3874,13 @@
       <c r="L48">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M48" t="s">
-        <v>31</v>
-      </c>
       <c r="N48" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" t="s">
         <v>42</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>43</v>
       </c>
       <c r="U48" t="s">
@@ -3929,13 +3930,13 @@
       <c r="L49">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M49" t="s">
-        <v>31</v>
-      </c>
       <c r="N49" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" t="s">
         <v>42</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>43</v>
       </c>
       <c r="U49" t="s">
@@ -3985,13 +3986,13 @@
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" t="s">
-        <v>31</v>
-      </c>
       <c r="N50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O50" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" t="s">
         <v>56</v>
       </c>
       <c r="R50" t="s">
@@ -4044,13 +4045,13 @@
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51" t="s">
-        <v>31</v>
-      </c>
       <c r="N51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O51" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" t="s">
         <v>46</v>
       </c>
       <c r="R51" t="s">
@@ -4103,13 +4104,13 @@
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="M52" t="s">
-        <v>31</v>
-      </c>
       <c r="N52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O52" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" t="s">
         <v>33</v>
       </c>
       <c r="R52" t="s">
@@ -4162,13 +4163,13 @@
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53" t="s">
-        <v>31</v>
-      </c>
       <c r="N53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O53" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" t="s">
         <v>55</v>
       </c>
       <c r="R53" t="s">
@@ -4221,13 +4222,13 @@
       <c r="L54">
         <v>0</v>
       </c>
-      <c r="M54" t="s">
-        <v>31</v>
-      </c>
       <c r="N54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O54" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" t="s">
         <v>38</v>
       </c>
       <c r="R54" t="s">
@@ -4280,13 +4281,13 @@
       <c r="L55">
         <v>0</v>
       </c>
-      <c r="M55" t="s">
-        <v>31</v>
-      </c>
       <c r="N55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O55" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" t="s">
         <v>55</v>
       </c>
       <c r="R55" t="s">
@@ -4339,13 +4340,13 @@
       <c r="L56">
         <v>0</v>
       </c>
-      <c r="M56" t="s">
-        <v>31</v>
-      </c>
       <c r="N56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O56" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" t="s">
         <v>56</v>
       </c>
       <c r="R56" t="s">
@@ -4398,13 +4399,13 @@
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57" t="s">
-        <v>31</v>
-      </c>
       <c r="N57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P57" t="s">
         <v>55</v>
       </c>
       <c r="R57" t="s">
@@ -4457,13 +4458,13 @@
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" t="s">
-        <v>31</v>
-      </c>
       <c r="N58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O58" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" t="s">
         <v>38</v>
       </c>
       <c r="R58" t="s">
@@ -4516,13 +4517,13 @@
       <c r="L59">
         <v>4.6661412E-5</v>
       </c>
-      <c r="M59" t="s">
-        <v>31</v>
-      </c>
       <c r="N59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O59" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" t="s">
         <v>46</v>
       </c>
       <c r="R59" t="s">
@@ -4575,13 +4576,13 @@
       <c r="L60">
         <v>0</v>
       </c>
-      <c r="M60" t="s">
-        <v>31</v>
-      </c>
       <c r="N60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O60" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" t="s">
         <v>48</v>
       </c>
       <c r="R60" t="s">
@@ -4634,13 +4635,13 @@
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61" t="s">
-        <v>31</v>
-      </c>
       <c r="N61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O61" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" t="s">
         <v>38</v>
       </c>
       <c r="R61" t="s">
@@ -4693,13 +4694,13 @@
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62" t="s">
-        <v>31</v>
-      </c>
       <c r="N62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O62" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" t="s">
         <v>46</v>
       </c>
       <c r="R62" t="s">
@@ -4752,13 +4753,13 @@
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="M63" t="s">
-        <v>31</v>
-      </c>
       <c r="N63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O63" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" t="s">
         <v>55</v>
       </c>
       <c r="R63" t="s">
@@ -4811,13 +4812,13 @@
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="M64" t="s">
-        <v>31</v>
-      </c>
       <c r="N64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O64" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" t="s">
         <v>46</v>
       </c>
       <c r="R64" t="s">
@@ -4870,13 +4871,13 @@
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="M65" t="s">
-        <v>31</v>
-      </c>
       <c r="N65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O65" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" t="s">
         <v>48</v>
       </c>
       <c r="R65" t="s">
@@ -4929,13 +4930,13 @@
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="M66" t="s">
-        <v>31</v>
-      </c>
       <c r="N66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O66" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" t="s">
         <v>55</v>
       </c>
       <c r="R66" t="s">
@@ -4988,13 +4989,13 @@
       <c r="L67">
         <v>0</v>
       </c>
-      <c r="M67" t="s">
-        <v>31</v>
-      </c>
       <c r="N67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O67" t="s">
+        <v>32</v>
+      </c>
+      <c r="P67" t="s">
         <v>56</v>
       </c>
       <c r="R67" t="s">
@@ -5047,13 +5048,13 @@
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68" t="s">
-        <v>31</v>
-      </c>
       <c r="N68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O68" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" t="s">
         <v>38</v>
       </c>
       <c r="R68" t="s">
@@ -5106,13 +5107,13 @@
       <c r="L69">
         <v>0</v>
       </c>
-      <c r="M69" t="s">
-        <v>31</v>
-      </c>
       <c r="N69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O69" t="s">
+        <v>32</v>
+      </c>
+      <c r="P69" t="s">
         <v>33</v>
       </c>
       <c r="R69" t="s">
@@ -5165,13 +5166,13 @@
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="M70" t="s">
-        <v>31</v>
-      </c>
       <c r="N70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O70" t="s">
+        <v>32</v>
+      </c>
+      <c r="P70" t="s">
         <v>46</v>
       </c>
       <c r="R70" t="s">
@@ -5224,13 +5225,13 @@
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71" t="s">
-        <v>31</v>
-      </c>
       <c r="N71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O71" t="s">
+        <v>32</v>
+      </c>
+      <c r="P71" t="s">
         <v>55</v>
       </c>
       <c r="R71" t="s">
@@ -5283,13 +5284,13 @@
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="M72" t="s">
-        <v>31</v>
-      </c>
       <c r="N72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O72" t="s">
+        <v>32</v>
+      </c>
+      <c r="P72" t="s">
         <v>56</v>
       </c>
       <c r="R72" t="s">
@@ -5342,13 +5343,13 @@
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73" t="s">
-        <v>31</v>
-      </c>
       <c r="N73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O73" t="s">
+        <v>32</v>
+      </c>
+      <c r="P73" t="s">
         <v>38</v>
       </c>
       <c r="R73" t="s">
@@ -5401,13 +5402,13 @@
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="M74" t="s">
-        <v>31</v>
-      </c>
       <c r="N74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O74" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" t="s">
         <v>55</v>
       </c>
       <c r="R74" t="s">
@@ -5460,13 +5461,13 @@
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75" t="s">
-        <v>31</v>
-      </c>
       <c r="N75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O75" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" t="s">
         <v>33</v>
       </c>
       <c r="R75" t="s">
@@ -5519,13 +5520,13 @@
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76" t="s">
-        <v>31</v>
-      </c>
       <c r="N76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O76" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" t="s">
         <v>33</v>
       </c>
       <c r="R76" t="s">
@@ -5578,13 +5579,13 @@
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" t="s">
-        <v>31</v>
-      </c>
       <c r="N77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O77" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" t="s">
         <v>56</v>
       </c>
       <c r="R77" t="s">
@@ -5637,13 +5638,13 @@
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78" t="s">
-        <v>31</v>
-      </c>
       <c r="N78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O78" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" t="s">
         <v>55</v>
       </c>
       <c r="R78" t="s">
@@ -5696,13 +5697,13 @@
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="M79" t="s">
-        <v>31</v>
-      </c>
       <c r="N79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O79" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" t="s">
         <v>38</v>
       </c>
       <c r="R79" t="s">
@@ -5755,13 +5756,13 @@
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80" t="s">
-        <v>31</v>
-      </c>
       <c r="N80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O80" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" t="s">
         <v>56</v>
       </c>
       <c r="R80" t="s">
@@ -5814,13 +5815,13 @@
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81" t="s">
-        <v>31</v>
-      </c>
       <c r="N81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O81" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" t="s">
         <v>56</v>
       </c>
       <c r="R81" t="s">
@@ -5873,13 +5874,13 @@
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="M82" t="s">
-        <v>31</v>
-      </c>
       <c r="N82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O82" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" t="s">
         <v>55</v>
       </c>
       <c r="R82" t="s">
@@ -5932,13 +5933,13 @@
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="M83" t="s">
-        <v>31</v>
-      </c>
       <c r="N83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O83" t="s">
+        <v>32</v>
+      </c>
+      <c r="P83" t="s">
         <v>38</v>
       </c>
       <c r="R83" t="s">
@@ -5991,13 +5992,13 @@
       <c r="L84">
         <v>6.0234306999999999E-5</v>
       </c>
-      <c r="M84" t="s">
-        <v>31</v>
-      </c>
       <c r="N84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O84" t="s">
+        <v>32</v>
+      </c>
+      <c r="P84" t="s">
         <v>46</v>
       </c>
       <c r="R84" t="s">
@@ -6050,13 +6051,13 @@
       <c r="L85">
         <v>4.7174981000000003E-5</v>
       </c>
-      <c r="M85" t="s">
-        <v>31</v>
-      </c>
       <c r="N85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O85" t="s">
+        <v>32</v>
+      </c>
+      <c r="P85" t="s">
         <v>46</v>
       </c>
       <c r="R85" t="s">
@@ -6109,13 +6110,13 @@
       <c r="L86">
         <v>0</v>
       </c>
-      <c r="M86" t="s">
-        <v>31</v>
-      </c>
       <c r="N86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O86" t="s">
+        <v>32</v>
+      </c>
+      <c r="P86" t="s">
         <v>56</v>
       </c>
       <c r="R86" t="s">
@@ -6168,13 +6169,13 @@
       <c r="L87">
         <v>0</v>
       </c>
-      <c r="M87" t="s">
-        <v>31</v>
-      </c>
       <c r="N87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O87" t="s">
+        <v>32</v>
+      </c>
+      <c r="P87" t="s">
         <v>56</v>
       </c>
       <c r="R87" t="s">
@@ -6227,13 +6228,13 @@
       <c r="L88">
         <v>0</v>
       </c>
-      <c r="M88" t="s">
-        <v>31</v>
-      </c>
       <c r="N88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O88" t="s">
+        <v>32</v>
+      </c>
+      <c r="P88" t="s">
         <v>48</v>
       </c>
       <c r="R88" t="s">
@@ -6286,13 +6287,13 @@
       <c r="L89">
         <v>0</v>
       </c>
-      <c r="M89" t="s">
-        <v>31</v>
-      </c>
       <c r="N89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O89" t="s">
+        <v>32</v>
+      </c>
+      <c r="P89" t="s">
         <v>48</v>
       </c>
       <c r="R89" t="s">
@@ -6345,13 +6346,13 @@
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="M90" t="s">
-        <v>31</v>
-      </c>
       <c r="N90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O90" t="s">
+        <v>32</v>
+      </c>
+      <c r="P90" t="s">
         <v>48</v>
       </c>
       <c r="R90" t="s">
@@ -6404,13 +6405,13 @@
       <c r="L91">
         <v>0</v>
       </c>
-      <c r="M91" t="s">
-        <v>31</v>
-      </c>
       <c r="N91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O91" t="s">
+        <v>32</v>
+      </c>
+      <c r="P91" t="s">
         <v>38</v>
       </c>
       <c r="R91" t="s">
@@ -6463,13 +6464,13 @@
       <c r="L92">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M92" t="s">
-        <v>31</v>
-      </c>
       <c r="N92" t="s">
+        <v>31</v>
+      </c>
+      <c r="O92" t="s">
         <v>42</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>43</v>
       </c>
       <c r="U92" t="s">
@@ -6519,13 +6520,13 @@
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93" t="s">
-        <v>31</v>
-      </c>
       <c r="N93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O93" t="s">
+        <v>32</v>
+      </c>
+      <c r="P93" t="s">
         <v>46</v>
       </c>
       <c r="R93" t="s">
@@ -6578,13 +6579,13 @@
       <c r="L94">
         <v>0</v>
       </c>
-      <c r="M94" t="s">
-        <v>31</v>
-      </c>
       <c r="N94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O94" t="s">
+        <v>32</v>
+      </c>
+      <c r="P94" t="s">
         <v>48</v>
       </c>
       <c r="R94" t="s">
@@ -6637,13 +6638,13 @@
       <c r="L95">
         <v>0</v>
       </c>
-      <c r="M95" t="s">
-        <v>31</v>
-      </c>
       <c r="N95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O95" t="s">
+        <v>32</v>
+      </c>
+      <c r="P95" t="s">
         <v>33</v>
       </c>
       <c r="R95" t="s">
@@ -6696,13 +6697,13 @@
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="M96" t="s">
-        <v>31</v>
-      </c>
       <c r="N96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O96" t="s">
+        <v>32</v>
+      </c>
+      <c r="P96" t="s">
         <v>48</v>
       </c>
       <c r="R96" t="s">
@@ -6755,13 +6756,13 @@
       <c r="L97">
         <v>0</v>
       </c>
-      <c r="M97" t="s">
-        <v>31</v>
-      </c>
       <c r="N97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O97" t="s">
+        <v>32</v>
+      </c>
+      <c r="P97" t="s">
         <v>46</v>
       </c>
       <c r="R97" t="s">
@@ -6814,13 +6815,13 @@
       <c r="L98">
         <v>0</v>
       </c>
-      <c r="M98" t="s">
-        <v>31</v>
-      </c>
       <c r="N98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O98" t="s">
+        <v>32</v>
+      </c>
+      <c r="P98" t="s">
         <v>46</v>
       </c>
       <c r="R98" t="s">
@@ -6873,13 +6874,13 @@
       <c r="L99">
         <v>0</v>
       </c>
-      <c r="M99" t="s">
-        <v>31</v>
-      </c>
       <c r="N99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O99" t="s">
+        <v>32</v>
+      </c>
+      <c r="P99" t="s">
         <v>48</v>
       </c>
       <c r="R99" t="s">
@@ -6932,13 +6933,13 @@
       <c r="L100">
         <v>4.3359897000000003E-5</v>
       </c>
-      <c r="M100" t="s">
-        <v>31</v>
-      </c>
       <c r="N100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O100" t="s">
+        <v>32</v>
+      </c>
+      <c r="P100" t="s">
         <v>46</v>
       </c>
       <c r="R100" t="s">
@@ -6991,13 +6992,13 @@
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101" t="s">
-        <v>31</v>
-      </c>
       <c r="N101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O101" t="s">
+        <v>32</v>
+      </c>
+      <c r="P101" t="s">
         <v>56</v>
       </c>
       <c r="R101" t="s">
@@ -7050,13 +7051,13 @@
       <c r="L102">
         <v>0</v>
       </c>
-      <c r="M102" t="s">
-        <v>31</v>
-      </c>
       <c r="N102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O102" t="s">
+        <v>32</v>
+      </c>
+      <c r="P102" t="s">
         <v>55</v>
       </c>
       <c r="R102" t="s">
@@ -7109,13 +7110,13 @@
       <c r="L103">
         <v>0</v>
       </c>
-      <c r="M103" t="s">
-        <v>31</v>
-      </c>
       <c r="N103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O103" t="s">
+        <v>32</v>
+      </c>
+      <c r="P103" t="s">
         <v>55</v>
       </c>
       <c r="R103" t="s">
@@ -7168,13 +7169,13 @@
       <c r="L104">
         <v>0</v>
       </c>
-      <c r="M104" t="s">
-        <v>31</v>
-      </c>
       <c r="N104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O104" t="s">
+        <v>32</v>
+      </c>
+      <c r="P104" t="s">
         <v>48</v>
       </c>
       <c r="R104" t="s">
@@ -7227,13 +7228,13 @@
       <c r="L105">
         <v>0</v>
       </c>
-      <c r="M105" t="s">
-        <v>31</v>
-      </c>
       <c r="N105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O105" t="s">
+        <v>32</v>
+      </c>
+      <c r="P105" t="s">
         <v>46</v>
       </c>
       <c r="R105" t="s">
@@ -7286,13 +7287,13 @@
       <c r="L106">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M106" t="s">
-        <v>31</v>
-      </c>
       <c r="N106" t="s">
+        <v>31</v>
+      </c>
+      <c r="O106" t="s">
         <v>42</v>
       </c>
-      <c r="O106" t="s">
+      <c r="P106" t="s">
         <v>43</v>
       </c>
       <c r="U106" t="s">
@@ -7342,13 +7343,13 @@
       <c r="L107">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M107" t="s">
-        <v>31</v>
-      </c>
       <c r="N107" t="s">
+        <v>31</v>
+      </c>
+      <c r="O107" t="s">
         <v>42</v>
       </c>
-      <c r="O107" t="s">
+      <c r="P107" t="s">
         <v>43</v>
       </c>
       <c r="U107" t="s">
@@ -7398,13 +7399,13 @@
       <c r="L108">
         <v>0</v>
       </c>
-      <c r="M108" t="s">
-        <v>31</v>
-      </c>
       <c r="N108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O108" t="s">
+        <v>32</v>
+      </c>
+      <c r="P108" t="s">
         <v>38</v>
       </c>
       <c r="R108" t="s">
@@ -7457,13 +7458,13 @@
       <c r="L109">
         <v>0</v>
       </c>
-      <c r="M109" t="s">
-        <v>31</v>
-      </c>
       <c r="N109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O109" t="s">
+        <v>32</v>
+      </c>
+      <c r="P109" t="s">
         <v>55</v>
       </c>
       <c r="R109" t="s">
@@ -7516,13 +7517,13 @@
       <c r="L110">
         <v>0</v>
       </c>
-      <c r="M110" t="s">
-        <v>31</v>
-      </c>
       <c r="N110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O110" t="s">
+        <v>32</v>
+      </c>
+      <c r="P110" t="s">
         <v>55</v>
       </c>
       <c r="R110" t="s">
@@ -7575,13 +7576,13 @@
       <c r="L111">
         <v>0</v>
       </c>
-      <c r="M111" t="s">
-        <v>31</v>
-      </c>
       <c r="N111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O111" t="s">
+        <v>32</v>
+      </c>
+      <c r="P111" t="s">
         <v>33</v>
       </c>
       <c r="R111" t="s">
@@ -7634,13 +7635,13 @@
       <c r="L112">
         <v>0</v>
       </c>
-      <c r="M112" t="s">
-        <v>31</v>
-      </c>
       <c r="N112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O112" t="s">
+        <v>32</v>
+      </c>
+      <c r="P112" t="s">
         <v>38</v>
       </c>
       <c r="R112" t="s">
@@ -7693,13 +7694,13 @@
       <c r="L113">
         <v>0</v>
       </c>
-      <c r="M113" t="s">
-        <v>31</v>
-      </c>
       <c r="N113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O113" t="s">
+        <v>32</v>
+      </c>
+      <c r="P113" t="s">
         <v>46</v>
       </c>
       <c r="R113" t="s">
@@ -7752,13 +7753,13 @@
       <c r="L114">
         <v>0.70499500000000004</v>
       </c>
-      <c r="M114" t="s">
-        <v>31</v>
-      </c>
       <c r="N114" t="s">
+        <v>31</v>
+      </c>
+      <c r="O114" t="s">
         <v>42</v>
       </c>
-      <c r="O114" t="s">
+      <c r="P114" t="s">
         <v>43</v>
       </c>
       <c r="U114" t="s">
@@ -7808,13 +7809,13 @@
       <c r="L115">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M115" t="s">
-        <v>31</v>
-      </c>
       <c r="N115" t="s">
+        <v>31</v>
+      </c>
+      <c r="O115" t="s">
         <v>42</v>
       </c>
-      <c r="O115" t="s">
+      <c r="P115" t="s">
         <v>43</v>
       </c>
       <c r="U115" t="s">
@@ -7864,13 +7865,13 @@
       <c r="L116">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M116" t="s">
-        <v>31</v>
-      </c>
       <c r="N116" t="s">
+        <v>31</v>
+      </c>
+      <c r="O116" t="s">
         <v>42</v>
       </c>
-      <c r="O116" t="s">
+      <c r="P116" t="s">
         <v>43</v>
       </c>
       <c r="U116" t="s">
@@ -7920,13 +7921,13 @@
       <c r="L117">
         <v>0</v>
       </c>
-      <c r="M117" t="s">
-        <v>31</v>
-      </c>
       <c r="N117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O117" t="s">
+        <v>32</v>
+      </c>
+      <c r="P117" t="s">
         <v>38</v>
       </c>
       <c r="R117" t="s">
@@ -7979,13 +7980,13 @@
       <c r="L118">
         <v>0</v>
       </c>
-      <c r="M118" t="s">
-        <v>31</v>
-      </c>
       <c r="N118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O118" t="s">
+        <v>32</v>
+      </c>
+      <c r="P118" t="s">
         <v>46</v>
       </c>
       <c r="R118" t="s">
@@ -8038,13 +8039,13 @@
       <c r="L119">
         <v>0.74209999999999998</v>
       </c>
-      <c r="M119" t="s">
-        <v>31</v>
-      </c>
       <c r="N119" t="s">
+        <v>31</v>
+      </c>
+      <c r="O119" t="s">
         <v>42</v>
       </c>
-      <c r="O119" t="s">
+      <c r="P119" t="s">
         <v>43</v>
       </c>
       <c r="U119" t="s">
@@ -8094,13 +8095,13 @@
       <c r="L120">
         <v>0</v>
       </c>
-      <c r="M120" t="s">
-        <v>31</v>
-      </c>
       <c r="N120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O120" t="s">
+        <v>32</v>
+      </c>
+      <c r="P120" t="s">
         <v>38</v>
       </c>
       <c r="R120" t="s">
@@ -8153,13 +8154,13 @@
       <c r="L121">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M121" t="s">
-        <v>31</v>
-      </c>
       <c r="N121" t="s">
+        <v>31</v>
+      </c>
+      <c r="O121" t="s">
         <v>42</v>
       </c>
-      <c r="O121" t="s">
+      <c r="P121" t="s">
         <v>43</v>
       </c>
       <c r="U121" t="s">
@@ -8209,13 +8210,13 @@
       <c r="L122">
         <v>0</v>
       </c>
-      <c r="M122" t="s">
-        <v>31</v>
-      </c>
       <c r="N122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O122" t="s">
+        <v>32</v>
+      </c>
+      <c r="P122" t="s">
         <v>56</v>
       </c>
       <c r="R122" t="s">
@@ -8268,13 +8269,13 @@
       <c r="L123">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M123" t="s">
-        <v>31</v>
-      </c>
       <c r="N123" t="s">
+        <v>31</v>
+      </c>
+      <c r="O123" t="s">
         <v>42</v>
       </c>
-      <c r="O123" t="s">
+      <c r="P123" t="s">
         <v>43</v>
       </c>
       <c r="U123" t="s">
@@ -8324,13 +8325,13 @@
       <c r="L124">
         <v>7.3293632999999996E-5</v>
       </c>
-      <c r="M124" t="s">
-        <v>31</v>
-      </c>
       <c r="N124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O124" t="s">
+        <v>32</v>
+      </c>
+      <c r="P124" t="s">
         <v>46</v>
       </c>
       <c r="R124" t="s">
@@ -8383,13 +8384,13 @@
       <c r="L125">
         <v>0</v>
       </c>
-      <c r="M125" t="s">
-        <v>31</v>
-      </c>
       <c r="N125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O125" t="s">
+        <v>32</v>
+      </c>
+      <c r="P125" t="s">
         <v>56</v>
       </c>
       <c r="R125" t="s">
@@ -8442,13 +8443,13 @@
       <c r="L126">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M126" t="s">
-        <v>31</v>
-      </c>
       <c r="N126" t="s">
+        <v>31</v>
+      </c>
+      <c r="O126" t="s">
         <v>42</v>
       </c>
-      <c r="O126" t="s">
+      <c r="P126" t="s">
         <v>43</v>
       </c>
       <c r="U126" t="s">
@@ -8498,13 +8499,13 @@
       <c r="L127">
         <v>4.5047338000000002E-5</v>
       </c>
-      <c r="M127" t="s">
-        <v>31</v>
-      </c>
       <c r="N127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O127" t="s">
+        <v>32</v>
+      </c>
+      <c r="P127" t="s">
         <v>46</v>
       </c>
       <c r="R127" t="s">
@@ -8557,13 +8558,13 @@
       <c r="L128">
         <v>0</v>
       </c>
-      <c r="M128" t="s">
-        <v>31</v>
-      </c>
       <c r="N128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O128" t="s">
+        <v>32</v>
+      </c>
+      <c r="P128" t="s">
         <v>46</v>
       </c>
       <c r="R128" t="s">
@@ -8616,13 +8617,13 @@
       <c r="L129">
         <v>5.6345855999999998E-5</v>
       </c>
-      <c r="M129" t="s">
-        <v>31</v>
-      </c>
       <c r="N129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O129" t="s">
+        <v>32</v>
+      </c>
+      <c r="P129" t="s">
         <v>46</v>
       </c>
       <c r="R129" t="s">
@@ -8675,13 +8676,13 @@
       <c r="L130">
         <v>7.1679559000000005E-5</v>
       </c>
-      <c r="M130" t="s">
-        <v>31</v>
-      </c>
       <c r="N130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O130" t="s">
+        <v>32</v>
+      </c>
+      <c r="P130" t="s">
         <v>46</v>
       </c>
       <c r="R130" t="s">
@@ -8734,13 +8735,13 @@
       <c r="L131">
         <v>4.8202119000000003E-5</v>
       </c>
-      <c r="M131" t="s">
-        <v>31</v>
-      </c>
       <c r="N131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O131" t="s">
+        <v>32</v>
+      </c>
+      <c r="P131" t="s">
         <v>46</v>
       </c>
       <c r="R131" t="s">
@@ -8793,13 +8794,13 @@
       <c r="L132">
         <v>5.4731782000000001E-5</v>
       </c>
-      <c r="M132" t="s">
-        <v>31</v>
-      </c>
       <c r="N132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O132" t="s">
+        <v>32</v>
+      </c>
+      <c r="P132" t="s">
         <v>46</v>
       </c>
       <c r="R132" t="s">
@@ -8852,13 +8853,13 @@
       <c r="L133">
         <v>4.2186025000000001E-5</v>
       </c>
-      <c r="M133" t="s">
-        <v>31</v>
-      </c>
       <c r="N133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O133" t="s">
+        <v>32</v>
+      </c>
+      <c r="P133" t="s">
         <v>46</v>
       </c>
       <c r="R133" t="s">
@@ -8911,13 +8912,13 @@
       <c r="L134">
         <v>0</v>
       </c>
-      <c r="M134" t="s">
-        <v>31</v>
-      </c>
       <c r="N134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O134" t="s">
+        <v>32</v>
+      </c>
+      <c r="P134" t="s">
         <v>46</v>
       </c>
       <c r="R134" t="s">
@@ -8970,13 +8971,13 @@
       <c r="L135">
         <v>0</v>
       </c>
-      <c r="M135" t="s">
-        <v>31</v>
-      </c>
       <c r="N135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O135" t="s">
+        <v>32</v>
+      </c>
+      <c r="P135" t="s">
         <v>46</v>
       </c>
       <c r="R135" t="s">
@@ -9029,13 +9030,13 @@
       <c r="L136">
         <v>0</v>
       </c>
-      <c r="M136" t="s">
-        <v>31</v>
-      </c>
       <c r="N136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O136" t="s">
+        <v>32</v>
+      </c>
+      <c r="P136" t="s">
         <v>46</v>
       </c>
       <c r="R136" t="s">
@@ -9088,13 +9089,13 @@
       <c r="L137">
         <v>4.108552E-5</v>
       </c>
-      <c r="M137" t="s">
-        <v>31</v>
-      </c>
       <c r="N137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O137" t="s">
+        <v>32</v>
+      </c>
+      <c r="P137" t="s">
         <v>46</v>
       </c>
       <c r="R137" t="s">
@@ -9147,13 +9148,13 @@
       <c r="L138">
         <v>0</v>
       </c>
-      <c r="M138" t="s">
-        <v>31</v>
-      </c>
       <c r="N138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O138" t="s">
+        <v>32</v>
+      </c>
+      <c r="P138" t="s">
         <v>48</v>
       </c>
       <c r="R138" t="s">
@@ -9206,13 +9207,13 @@
       <c r="L139">
         <v>0</v>
       </c>
-      <c r="M139" t="s">
-        <v>31</v>
-      </c>
       <c r="N139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O139" t="s">
+        <v>32</v>
+      </c>
+      <c r="P139" t="s">
         <v>46</v>
       </c>
       <c r="R139" t="s">
@@ -9265,13 +9266,13 @@
       <c r="L140">
         <v>0</v>
       </c>
-      <c r="M140" t="s">
-        <v>31</v>
-      </c>
       <c r="N140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O140" t="s">
+        <v>32</v>
+      </c>
+      <c r="P140" t="s">
         <v>46</v>
       </c>
       <c r="R140" t="s">
@@ -9324,13 +9325,13 @@
       <c r="L141">
         <v>4.3433263999999998E-5</v>
       </c>
-      <c r="M141" t="s">
-        <v>31</v>
-      </c>
       <c r="N141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O141" t="s">
+        <v>32</v>
+      </c>
+      <c r="P141" t="s">
         <v>46</v>
       </c>
       <c r="R141" t="s">
@@ -9383,13 +9384,13 @@
       <c r="L142">
         <v>0</v>
       </c>
-      <c r="M142" t="s">
-        <v>31</v>
-      </c>
       <c r="N142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O142" t="s">
+        <v>32</v>
+      </c>
+      <c r="P142" t="s">
         <v>46</v>
       </c>
       <c r="R142" t="s">
@@ -9442,13 +9443,13 @@
       <c r="L143">
         <v>0</v>
       </c>
-      <c r="M143" t="s">
-        <v>31</v>
-      </c>
       <c r="N143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O143" t="s">
+        <v>32</v>
+      </c>
+      <c r="P143" t="s">
         <v>48</v>
       </c>
       <c r="R143" t="s">
@@ -9501,13 +9502,13 @@
       <c r="L144">
         <v>5.9647371000000002E-5</v>
       </c>
-      <c r="M144" t="s">
-        <v>31</v>
-      </c>
       <c r="N144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O144" t="s">
+        <v>32</v>
+      </c>
+      <c r="P144" t="s">
         <v>46</v>
       </c>
       <c r="R144" t="s">
@@ -9560,13 +9561,13 @@
       <c r="L145">
         <v>0</v>
       </c>
-      <c r="M145" t="s">
-        <v>31</v>
-      </c>
       <c r="N145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O145" t="s">
+        <v>32</v>
+      </c>
+      <c r="P145" t="s">
         <v>48</v>
       </c>
       <c r="R145" t="s">
@@ -9619,13 +9620,13 @@
       <c r="L146">
         <v>0</v>
       </c>
-      <c r="M146" t="s">
-        <v>31</v>
-      </c>
       <c r="N146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O146" t="s">
+        <v>32</v>
+      </c>
+      <c r="P146" t="s">
         <v>48</v>
       </c>
       <c r="R146" t="s">
@@ -9678,13 +9679,13 @@
       <c r="L147">
         <v>0</v>
       </c>
-      <c r="M147" t="s">
-        <v>31</v>
-      </c>
       <c r="N147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O147" t="s">
+        <v>32</v>
+      </c>
+      <c r="P147" t="s">
         <v>48</v>
       </c>
       <c r="R147" t="s">
@@ -9737,13 +9738,13 @@
       <c r="L148">
         <v>0</v>
       </c>
-      <c r="M148" t="s">
-        <v>31</v>
-      </c>
       <c r="N148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O148" t="s">
+        <v>32</v>
+      </c>
+      <c r="P148" t="s">
         <v>48</v>
       </c>
       <c r="R148" t="s">
@@ -9796,13 +9797,13 @@
       <c r="L149">
         <v>0</v>
       </c>
-      <c r="M149" t="s">
-        <v>31</v>
-      </c>
       <c r="N149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O149" t="s">
+        <v>32</v>
+      </c>
+      <c r="P149" t="s">
         <v>48</v>
       </c>
       <c r="R149" t="s">
@@ -9855,13 +9856,13 @@
       <c r="L150">
         <v>0</v>
       </c>
-      <c r="M150" t="s">
-        <v>31</v>
-      </c>
       <c r="N150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O150" t="s">
+        <v>32</v>
+      </c>
+      <c r="P150" t="s">
         <v>48</v>
       </c>
       <c r="R150" t="s">
@@ -9914,13 +9915,13 @@
       <c r="L151">
         <v>0</v>
       </c>
-      <c r="M151" t="s">
-        <v>31</v>
-      </c>
       <c r="N151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O151" t="s">
+        <v>32</v>
+      </c>
+      <c r="P151" t="s">
         <v>48</v>
       </c>
       <c r="R151" t="s">
@@ -9973,13 +9974,13 @@
       <c r="L152">
         <v>0</v>
       </c>
-      <c r="M152" t="s">
-        <v>31</v>
-      </c>
       <c r="N152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O152" t="s">
+        <v>32</v>
+      </c>
+      <c r="P152" t="s">
         <v>48</v>
       </c>
       <c r="R152" t="s">
@@ -10032,13 +10033,13 @@
       <c r="L153">
         <v>0</v>
       </c>
-      <c r="M153" t="s">
-        <v>31</v>
-      </c>
       <c r="N153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O153" t="s">
+        <v>32</v>
+      </c>
+      <c r="P153" t="s">
         <v>38</v>
       </c>
       <c r="R153" t="s">
@@ -10091,13 +10092,13 @@
       <c r="L154">
         <v>0</v>
       </c>
-      <c r="M154" t="s">
-        <v>31</v>
-      </c>
       <c r="N154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O154" t="s">
+        <v>32</v>
+      </c>
+      <c r="P154" t="s">
         <v>38</v>
       </c>
       <c r="R154" t="s">
@@ -10150,13 +10151,13 @@
       <c r="L155">
         <v>0</v>
       </c>
-      <c r="M155" t="s">
-        <v>31</v>
-      </c>
       <c r="N155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O155" t="s">
+        <v>32</v>
+      </c>
+      <c r="P155" t="s">
         <v>38</v>
       </c>
       <c r="R155" t="s">
@@ -10209,13 +10210,13 @@
       <c r="L156">
         <v>0</v>
       </c>
-      <c r="M156" t="s">
-        <v>31</v>
-      </c>
       <c r="N156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O156" t="s">
+        <v>32</v>
+      </c>
+      <c r="P156" t="s">
         <v>38</v>
       </c>
       <c r="R156" t="s">
@@ -10268,13 +10269,13 @@
       <c r="L157">
         <v>0</v>
       </c>
-      <c r="M157" t="s">
-        <v>31</v>
-      </c>
       <c r="N157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O157" t="s">
+        <v>32</v>
+      </c>
+      <c r="P157" t="s">
         <v>38</v>
       </c>
       <c r="R157" t="s">
@@ -10327,13 +10328,13 @@
       <c r="L158">
         <v>0</v>
       </c>
-      <c r="M158" t="s">
-        <v>31</v>
-      </c>
       <c r="N158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O158" t="s">
+        <v>32</v>
+      </c>
+      <c r="P158" t="s">
         <v>33</v>
       </c>
       <c r="R158" t="s">
@@ -10386,13 +10387,13 @@
       <c r="L159">
         <v>0</v>
       </c>
-      <c r="M159" t="s">
-        <v>31</v>
-      </c>
       <c r="N159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O159" t="s">
+        <v>32</v>
+      </c>
+      <c r="P159" t="s">
         <v>38</v>
       </c>
       <c r="R159" t="s">
@@ -10445,13 +10446,13 @@
       <c r="L160">
         <v>0</v>
       </c>
-      <c r="M160" t="s">
-        <v>31</v>
-      </c>
       <c r="N160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O160" t="s">
+        <v>32</v>
+      </c>
+      <c r="P160" t="s">
         <v>55</v>
       </c>
       <c r="R160" t="s">
@@ -10504,13 +10505,13 @@
       <c r="L161">
         <v>0</v>
       </c>
-      <c r="M161" t="s">
-        <v>31</v>
-      </c>
       <c r="N161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O161" t="s">
+        <v>32</v>
+      </c>
+      <c r="P161" t="s">
         <v>55</v>
       </c>
       <c r="R161" t="s">
@@ -10563,13 +10564,13 @@
       <c r="L162">
         <v>0</v>
       </c>
-      <c r="M162" t="s">
-        <v>31</v>
-      </c>
       <c r="N162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O162" t="s">
+        <v>32</v>
+      </c>
+      <c r="P162" t="s">
         <v>33</v>
       </c>
       <c r="R162" t="s">
@@ -10622,13 +10623,13 @@
       <c r="L163">
         <v>0</v>
       </c>
-      <c r="M163" t="s">
-        <v>31</v>
-      </c>
       <c r="N163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O163" t="s">
+        <v>32</v>
+      </c>
+      <c r="P163" t="s">
         <v>33</v>
       </c>
       <c r="R163" t="s">
@@ -10681,13 +10682,13 @@
       <c r="L164">
         <v>0</v>
       </c>
-      <c r="M164" t="s">
-        <v>31</v>
-      </c>
       <c r="N164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O164" t="s">
+        <v>32</v>
+      </c>
+      <c r="P164" t="s">
         <v>33</v>
       </c>
       <c r="R164" t="s">
@@ -10740,13 +10741,13 @@
       <c r="L165">
         <v>0</v>
       </c>
-      <c r="M165" t="s">
-        <v>31</v>
-      </c>
       <c r="N165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O165" t="s">
+        <v>32</v>
+      </c>
+      <c r="P165" t="s">
         <v>33</v>
       </c>
       <c r="R165" t="s">
@@ -10799,13 +10800,13 @@
       <c r="L166">
         <v>0</v>
       </c>
-      <c r="M166" t="s">
-        <v>31</v>
-      </c>
       <c r="N166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O166" t="s">
+        <v>32</v>
+      </c>
+      <c r="P166" t="s">
         <v>33</v>
       </c>
       <c r="R166" t="s">
@@ -10858,13 +10859,13 @@
       <c r="L167">
         <v>0</v>
       </c>
-      <c r="M167" t="s">
-        <v>31</v>
-      </c>
       <c r="N167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O167" t="s">
+        <v>32</v>
+      </c>
+      <c r="P167" t="s">
         <v>48</v>
       </c>
       <c r="R167" t="s">
@@ -10917,13 +10918,13 @@
       <c r="L168">
         <v>0</v>
       </c>
-      <c r="M168" t="s">
-        <v>31</v>
-      </c>
       <c r="N168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O168" t="s">
+        <v>32</v>
+      </c>
+      <c r="P168" t="s">
         <v>33</v>
       </c>
       <c r="R168" t="s">
@@ -10976,13 +10977,13 @@
       <c r="L169">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M169" t="s">
-        <v>31</v>
-      </c>
       <c r="N169" t="s">
+        <v>31</v>
+      </c>
+      <c r="O169" t="s">
         <v>42</v>
       </c>
-      <c r="O169" t="s">
+      <c r="P169" t="s">
         <v>43</v>
       </c>
       <c r="U169" t="s">
@@ -11032,13 +11033,13 @@
       <c r="L170">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M170" t="s">
-        <v>31</v>
-      </c>
       <c r="N170" t="s">
+        <v>31</v>
+      </c>
+      <c r="O170" t="s">
         <v>42</v>
       </c>
-      <c r="O170" t="s">
+      <c r="P170" t="s">
         <v>43</v>
       </c>
       <c r="U170" t="s">
@@ -11088,13 +11089,13 @@
       <c r="L171">
         <v>0</v>
       </c>
-      <c r="M171" t="s">
-        <v>31</v>
-      </c>
       <c r="N171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O171" t="s">
+        <v>32</v>
+      </c>
+      <c r="P171" t="s">
         <v>33</v>
       </c>
       <c r="R171" t="s">
@@ -11147,13 +11148,13 @@
       <c r="L172">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M172" t="s">
-        <v>31</v>
-      </c>
       <c r="N172" t="s">
+        <v>31</v>
+      </c>
+      <c r="O172" t="s">
         <v>42</v>
       </c>
-      <c r="O172" t="s">
+      <c r="P172" t="s">
         <v>43</v>
       </c>
       <c r="U172" t="s">
@@ -11203,13 +11204,13 @@
       <c r="L173">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M173" t="s">
-        <v>31</v>
-      </c>
       <c r="N173" t="s">
+        <v>31</v>
+      </c>
+      <c r="O173" t="s">
         <v>42</v>
       </c>
-      <c r="O173" t="s">
+      <c r="P173" t="s">
         <v>43</v>
       </c>
       <c r="U173" t="s">
@@ -11259,13 +11260,13 @@
       <c r="L174">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M174" t="s">
-        <v>31</v>
-      </c>
       <c r="N174" t="s">
+        <v>31</v>
+      </c>
+      <c r="O174" t="s">
         <v>42</v>
       </c>
-      <c r="O174" t="s">
+      <c r="P174" t="s">
         <v>43</v>
       </c>
       <c r="U174" t="s">
@@ -11315,13 +11316,13 @@
       <c r="L175">
         <v>0.77920500000000004</v>
       </c>
-      <c r="M175" t="s">
-        <v>31</v>
-      </c>
       <c r="N175" t="s">
+        <v>31</v>
+      </c>
+      <c r="O175" t="s">
         <v>42</v>
       </c>
-      <c r="O175" t="s">
+      <c r="P175" t="s">
         <v>43</v>
       </c>
       <c r="U175" t="s">
@@ -11371,13 +11372,13 @@
       <c r="L176">
         <v>0</v>
       </c>
-      <c r="M176" t="s">
-        <v>31</v>
-      </c>
       <c r="N176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O176" t="s">
+        <v>32</v>
+      </c>
+      <c r="P176" t="s">
         <v>33</v>
       </c>
       <c r="R176" t="s">
@@ -11430,13 +11431,13 @@
       <c r="L177">
         <v>0.89051999999999998</v>
       </c>
-      <c r="M177" t="s">
-        <v>31</v>
-      </c>
       <c r="N177" t="s">
+        <v>31</v>
+      </c>
+      <c r="O177" t="s">
         <v>42</v>
       </c>
-      <c r="O177" t="s">
+      <c r="P177" t="s">
         <v>43</v>
       </c>
       <c r="U177" t="s">
